--- a/biology/Médecine/Immunoélectrophorèse/Immunoélectrophorèse.xlsx
+++ b/biology/Médecine/Immunoélectrophorèse/Immunoélectrophorèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Immuno%C3%A9lectrophor%C3%A8se</t>
+          <t>Immunoélectrophorèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immunoélectrophorèse est une méthode de laboratoire qui, en couplant une électrophorèse avec une solution contenant des anticorps spécifiques, va séparer les molécules composants le sérum ou l'urine en formant un précipité qui sera spécifique de chaque immunoglobuline.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Immuno%C3%A9lectrophor%C3%A8se</t>
+          <t>Immunoélectrophorèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode opératoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La séparation des molécules se fait par électrophorèse. La réaction immunologique conduit à la formation de lignes de précipitation entre des antigènes et des anticorps. Les précipités peuvent être facilement visualisés sur un gel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La séparation des molécules se fait par électrophorèse. La réaction immunologique conduit à la formation de lignes de précipitation entre des antigènes et des anticorps. Les précipités peuvent être facilement visualisés sur un gel.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Immuno%C3%A9lectrophor%C3%A8se</t>
+          <t>Immunoélectrophorèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Intérêt en médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet examen de Biologie médicale est utilisé notamment pour la recherche de maladies telles que :
 Le myélome multiple (à immunoglobulines G et A),
